--- a/Team-Data/2008-09/1-3-2008-09.xlsx
+++ b/Team-Data/2008-09/1-3-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="N2" t="n">
         <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P2" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="R2" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="S2" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>13.4</v>
@@ -729,22 +796,22 @@
         <v>5.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -753,22 +820,22 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -777,43 +844,43 @@
         <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT2" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.848</v>
+        <v>0.853</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378</v>
+        <v>0.373</v>
       </c>
       <c r="O3" t="n">
         <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.4</v>
@@ -908,43 +975,43 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>24.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -956,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.353</v>
+        <v>0.333</v>
       </c>
       <c r="H4" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
         <v>33.6</v>
       </c>
       <c r="J4" t="n">
-        <v>75.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
         <v>5.3</v>
@@ -1060,37 +1127,37 @@
         <v>15.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.744</v>
+        <v>0.738</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T4" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V4" t="n">
         <v>15.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
@@ -1102,16 +1169,16 @@
         <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.2</v>
+        <v>90.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -1120,16 +1187,16 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1141,34 +1208,34 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,13 +1244,13 @@
         <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -1215,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394</v>
+        <v>0.424</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,109 +1297,109 @@
         <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
         <v>4</v>
       </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1341,31 +1408,31 @@
         <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA5" t="n">
         <v>23</v>
       </c>
-      <c r="BA5" t="n">
-        <v>24</v>
-      </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.871</v>
+        <v>0.844</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>79.2</v>
+        <v>78.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.5</v>
+        <v>101.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1502,16 +1569,16 @@
         <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
         <v>15</v>
@@ -1523,10 +1590,10 @@
         <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>7</v>
@@ -1538,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>3.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1669,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1681,10 +1748,10 @@
         <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1705,19 +1772,19 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.657</v>
+        <v>0.647</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,49 +1843,49 @@
         <v>36.8</v>
       </c>
       <c r="J8" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
         <v>10.3</v>
       </c>
       <c r="S8" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
         <v>5.8</v>
@@ -1827,16 +1894,16 @@
         <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB8" t="n">
         <v>103.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,7 +1918,7 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,34 +1942,34 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
         <v>14</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
         <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -2039,10 +2106,10 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
         <v>27</v>
@@ -2051,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
@@ -2063,19 +2130,19 @@
         <v>23</v>
       </c>
       <c r="AS9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>9</v>
@@ -2090,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="BB9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
         <v>18</v>
@@ -2245,16 +2312,16 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.618</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J11" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P11" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V11" t="n">
         <v>14.1</v>
@@ -2364,37 +2431,37 @@
         <v>6.6</v>
       </c>
       <c r="X11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y11" t="n">
         <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA11" t="n">
         <v>21.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2403,7 +2470,7 @@
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2418,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2427,13 +2494,13 @@
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2442,19 +2509,19 @@
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.364</v>
+        <v>0.344</v>
       </c>
       <c r="H12" t="n">
         <v>48.8</v>
       </c>
       <c r="I12" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J12" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
         <v>6.9</v>
@@ -2516,16 +2583,16 @@
         <v>19.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
@@ -2537,37 +2604,37 @@
         <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V12" t="n">
         <v>15.9</v>
       </c>
       <c r="W12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>102.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2588,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>11</v>
@@ -2597,25 +2664,25 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
         <v>26</v>
@@ -2624,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,7 +2700,7 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2764,7 +2831,7 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2773,7 +2840,7 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
         <v>29</v>
@@ -2782,7 +2849,7 @@
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2797,13 +2864,13 @@
         <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.833</v>
+        <v>0.839</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>14</v>
@@ -2913,28 +2980,28 @@
         <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2946,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>15</v>
@@ -2958,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2988,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3146,10 +3213,10 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3167,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -3214,157 +3281,157 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J16" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R16" t="n">
         <v>11</v>
       </c>
       <c r="S16" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM16" t="n">
         <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -3414,106 +3481,106 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="K17" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S17" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
@@ -3525,19 +3592,19 @@
         <v>4</v>
       </c>
       <c r="AU17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY17" t="n">
         <v>15</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.242</v>
+        <v>0.219</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,82 +3663,82 @@
         <v>36.1</v>
       </c>
       <c r="J18" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P18" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="R18" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
         <v>6.3</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3680,7 +3747,7 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
@@ -3689,28 +3756,28 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3722,16 +3789,16 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -3760,85 +3827,85 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.471</v>
+        <v>0.485</v>
       </c>
       <c r="H19" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I19" t="n">
         <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P19" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R19" t="n">
         <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U19" t="n">
         <v>18.7</v>
       </c>
       <c r="V19" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,25 +3917,25 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3880,37 +3947,37 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU19" t="n">
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -3942,43 +4009,43 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.667</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J20" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.392</v>
+        <v>0.395</v>
       </c>
       <c r="O20" t="n">
         <v>17.9</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.803</v>
@@ -3987,40 +4054,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T20" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U20" t="n">
         <v>20</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
         <v>4.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4056,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>4</v>
@@ -4071,10 +4138,10 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
@@ -4086,16 +4153,16 @@
         <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
         <v>12</v>
       </c>
       <c r="BB20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -4214,16 +4281,16 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4238,16 +4305,16 @@
         <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT21" t="n">
         <v>9</v>
@@ -4256,10 +4323,10 @@
         <v>6</v>
       </c>
       <c r="AV21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4414,28 +4481,28 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
         <v>20</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
         <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>18</v>
       </c>
       <c r="AT22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
@@ -4456,7 +4523,7 @@
         <v>25</v>
       </c>
       <c r="BB22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4599,7 +4666,7 @@
         <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>3</v>
@@ -4620,10 +4687,10 @@
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>3</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>0.394</v>
+        <v>0.406</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J24" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.445</v>
       </c>
       <c r="L24" t="n">
         <v>3.6</v>
@@ -4700,16 +4767,16 @@
         <v>12.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.294</v>
+        <v>0.293</v>
       </c>
       <c r="O24" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P24" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R24" t="n">
         <v>12.9</v>
@@ -4718,16 +4785,16 @@
         <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U24" t="n">
         <v>20.1</v>
       </c>
       <c r="V24" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
@@ -4736,28 +4803,28 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="AC24" t="n">
         <v>-1.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="n">
         <v>18</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AG24" t="n">
         <v>19</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>18</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4766,10 +4833,10 @@
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4781,13 +4848,13 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4802,13 +4869,13 @@
         <v>18</v>
       </c>
       <c r="AV24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4820,7 +4887,7 @@
         <v>21</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4969,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
         <v>11</v>
@@ -4993,10 +5060,10 @@
         <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.606</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
         <v>7.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O26" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
@@ -5097,43 +5164,43 @@
         <v>5.3</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AC26" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z26" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>9</v>
       </c>
       <c r="AF26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
         <v>9</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5145,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5169,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5178,16 +5245,16 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -5216,127 +5283,127 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.235</v>
+        <v>0.242</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L27" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
       <c r="O27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.792</v>
       </c>
       <c r="R27" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S27" t="n">
         <v>28.9</v>
       </c>
       <c r="T27" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W27" t="n">
         <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y27" t="n">
         <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
@@ -5345,19 +5412,19 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV27" t="n">
         <v>25</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -5398,64 +5465,64 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J28" t="n">
         <v>79.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.406</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R28" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="T28" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V28" t="n">
         <v>12.2</v>
       </c>
       <c r="W28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X28" t="n">
         <v>4.2</v>
@@ -5467,16 +5534,16 @@
         <v>18.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC28" t="n">
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5485,25 +5552,25 @@
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,19 +5582,19 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5539,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>24</v>
@@ -5685,13 +5752,13 @@
         <v>16</v>
       </c>
       <c r="AM29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN29" t="n">
         <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5718,16 +5785,16 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5849,19 +5916,19 @@
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,13 +5946,13 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5900,13 +5967,13 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
         <v>16</v>
@@ -6049,13 +6116,13 @@
         <v>22</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
         <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6067,19 +6134,19 @@
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW31" t="n">
         <v>13</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6088,13 +6155,13 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-3-2008-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
     </row>
